--- a/assignments/Excel_Lab-Week 4-Homework Assignment_Part2.xlsx
+++ b/assignments/Excel_Lab-Week 4-Homework Assignment_Part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens_Institute_NJ\TA-Sem1-Form\Lab Recitation E\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Humna\Documents\GitHub\mis201\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57401CCD-0486-44B2-A4B9-0975A58F580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6922FFCD-5D51-4B13-B4DE-CD0F7E5FFE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{0480BBF1-A0D0-4F06-8193-37E95068A1CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0480BBF1-A0D0-4F06-8193-37E95068A1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,7 +169,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -182,13 +182,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,16 +509,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +542,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,7 +558,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +566,7 @@
         <v>37557</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +574,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,7 +582,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +590,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -598,7 +598,7 @@
         <v>28618</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,16 +616,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,7 +657,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,7 +665,7 @@
         <v>39299</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,7 +673,7 @@
         <v>35851</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -681,7 +681,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,7 +689,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +697,7 @@
         <v>33856</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,7 +705,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -723,16 +723,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>17030</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>18030</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>24455</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,7 +788,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -796,7 +796,7 @@
         <v>29155</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,7 +804,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -812,7 +812,7 @@
         <v>24650</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -830,16 +830,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -863,7 +863,7 @@
         <v>24650</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>27316</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,7 +903,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,7 +911,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,7 +919,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,16 +937,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,7 +962,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,7 +970,7 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,7 +978,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +986,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -994,7 +994,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,16 +1044,16 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
